--- a/remedy_excel.xlsx
+++ b/remedy_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashutoshgoenka/Desktop/Eigen/Word_table_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D3640D7-E9D6-0748-BF34-27DC91B9D740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F504E99-6421-1442-BCB2-EFB8FC9C0DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{22DEE597-3440-3645-8EDE-CDC93DAFF554}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{22DEE597-3440-3645-8EDE-CDC93DAFF554}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Observations</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Treatment shall be done as per Annexure 4A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrosion cracks were observed on Beam.    </t>
+  </si>
+  <si>
+    <t>Corrosion crack were observed on column.</t>
+  </si>
+  <si>
+    <t>Spalling of concrete was observed on Beam.</t>
   </si>
 </sst>
 </file>
@@ -467,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9697461-8330-D845-8ABD-4732EF01E4CE}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,6 +560,38 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
